--- a/Dataset2/Detection_result/results_2vs1.xlsx
+++ b/Dataset2/Detection_result/results_2vs1.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Duikang_dataset\VulHunter\Dataset2\Detection_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SmartContract\Github\VulHunter\Dataset2\Detection_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227B6FA6-DC8B-4F0D-8F72-1C11362A14F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82853BE1-AC76-42E3-8152-68FB41929590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVG" sheetId="1" r:id="rId1"/>
     <sheet name="NVAG" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -724,7 +714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,11 +722,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1084,7 +1081,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1092,162 +1089,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="6" width="9" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>41.666666666666671</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>23.52941176470588</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>77.777777777777786</v>
       </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
         <v>66.666666666666657</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>88.888888888888886</v>
       </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>66.666666669999998</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="F3">
-        <v>27.586206896551719</v>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C3" s="5">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>100</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
       </c>
       <c r="G3">
         <v>33.333333333333329</v>
       </c>
       <c r="H3">
+        <v>27.586206896551719</v>
+      </c>
+      <c r="I3">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="J3">
         <v>50</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>66.666666666666657</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>80</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>94.117647059999996</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
+        <v>3.72032665902162</v>
+      </c>
+      <c r="E4" s="5">
         <v>83.333333330000002</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="6">
+        <v>9.1100602236709474</v>
+      </c>
+      <c r="G4">
         <v>61.111111111111107</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>44.444444444444443</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
@@ -1255,43 +1290,55 @@
         <v>0</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>94.444444444444443</v>
       </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>33.333333330000002</v>
       </c>
-      <c r="P4">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>33.333333330000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C5" s="5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
         <v>90.909090910000003</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="6">
+        <v>5.2835138709583944</v>
+      </c>
+      <c r="G5">
         <v>66.666666666666657</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>53.333333333333343</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
@@ -1299,39 +1346,51 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>83.333333333333343</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>90.909090909090907</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>93.333333330000002</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
+        <v>4.2163702135578376</v>
+      </c>
+      <c r="E6" s="5">
         <v>83.333333330000002</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="F6" s="6">
+        <v>9.1100602236709474</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1340,42 +1399,54 @@
         <v>0</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>80</v>
       </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6">
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
         <v>93.333333333333329</v>
       </c>
-      <c r="L6">
-        <v>100</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>33.333333330000002</v>
       </c>
-      <c r="P6">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>33.333333330000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C7" s="5">
+        <v>100</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
         <v>90.909090910000003</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="F7" s="6">
+        <v>5.2835138709583944</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1384,44 +1455,56 @@
         <v>0</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>40</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>57.142857142857153</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>80</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>88.8888888888889</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="C8" s="5">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>100</v>
+      </c>
+      <c r="F8" s="6">
         <v>0</v>
       </c>
       <c r="G8">
@@ -1437,35 +1520,47 @@
         <v>0</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>73.333333333333329</v>
       </c>
-      <c r="L8">
-        <v>100</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>33.333333330000002</v>
       </c>
-      <c r="P8">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>33.333333330000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C9" s="5">
+        <v>100</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>100</v>
+      </c>
+      <c r="F9" s="6">
         <v>0</v>
       </c>
       <c r="G9">
@@ -1481,315 +1576,399 @@
         <v>0</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>20</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>33.333333333333343</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>95.454545449999998</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
+        <v>1.9165319152535649</v>
+      </c>
+      <c r="E10" s="5">
         <v>95.238095240000007</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="6">
+        <v>3.011693009684171</v>
+      </c>
+      <c r="G10">
         <v>50</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>33.333333333333329</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>74.242424242424249</v>
       </c>
-      <c r="J10">
-        <v>100</v>
-      </c>
-      <c r="K10">
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
         <v>84.848484848484844</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>92.857142857142861</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>66.666666669999998</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C11">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C11" s="5">
         <v>90.909090910000003</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
+        <v>2.8747978728803458</v>
+      </c>
+      <c r="E11" s="5">
         <v>93.023255809999995</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="6">
+        <v>2.9416536373659361</v>
+      </c>
+      <c r="G11">
         <v>50</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>40</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>22.72727272727273</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>37.037037037037038</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>59.090909090909093</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>72.222222222222229</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>95.726381459999999</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
+        <v>2.4633071969582567</v>
+      </c>
+      <c r="E12" s="5">
         <v>90.47619048</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="5">
+        <v>5.307953364256516</v>
+      </c>
+      <c r="G12">
         <v>27.777777777777779</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>19.444444444444443</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>38.560606060606062</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>50</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>86.48989898989899</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>98.214285714285722</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>41.666666669999998</v>
       </c>
-      <c r="P12">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C13">
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C13" s="5">
         <v>97.727272729999996</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
+        <v>0.71869946822008646</v>
+      </c>
+      <c r="E13" s="5">
         <v>93.962047150000004</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="5">
+        <v>3.3771703448206813</v>
+      </c>
+      <c r="G13">
         <v>29.166666666666664</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>23.333333333333332</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>15.681818181818183</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>23.875432525951556</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>60.606060606060609</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>74.957410562180584</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>75</v>
       </c>
-      <c r="P13">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>95.967741939999996</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
+        <v>1.612903225806454</v>
+      </c>
+      <c r="E14" s="5">
         <v>93.023255809999995</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="F14" s="6">
+        <v>3.153479506284548</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>61.904761904761912</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>31.25</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>64.285714285714292</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>40</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>94.444444444444443</v>
       </c>
-      <c r="L14">
-        <v>100</v>
-      </c>
-      <c r="M14">
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14">
         <v>0.79365079365079361</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>66.666666669999998</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C15">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C15" s="5">
         <v>95.238095240000007</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
+        <v>1.505846504842083</v>
+      </c>
+      <c r="E15" s="5">
         <v>94.117647059999996</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="F15" s="6">
+        <v>2.2981211657995479</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>11.9047619047619</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>17.241379310344829</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>14.285714285714279</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>21.052631578947359</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>83.333333333333343</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>90.909090909090907</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>89.743589740000004</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
+        <v>5.1282051282051304</v>
+      </c>
+      <c r="E16" s="5">
         <v>90.909090910000003</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="F16" s="6">
+        <v>6.3604609682153521</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1804,36 +1983,48 @@
         <v>0</v>
       </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>71.794871794871796</v>
       </c>
-      <c r="L16">
-        <v>100</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>66.666666669999998</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C17" s="5">
         <v>76.92307692</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
+        <v>10.87856586440842</v>
+      </c>
+      <c r="E17" s="5">
         <v>83.333333330000002</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="F17" s="6">
+        <v>8.9113272767432541</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1848,39 +2039,51 @@
         <v>0</v>
       </c>
       <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>15.38461538461539</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>26.666666666666671</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>88.888888890000004</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
+        <v>7.0272836892630659</v>
+      </c>
+      <c r="E18" s="5">
         <v>83.333333330000002</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="F18" s="6">
+        <v>10.540925533894599</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1895,36 +2098,48 @@
         <v>0</v>
       </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>94.444444444444443</v>
       </c>
-      <c r="L18">
-        <v>100</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>33.333333330000002</v>
       </c>
-      <c r="P18">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>33.333333330000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C19">
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C19" s="5">
         <v>83.333333330000002</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
+        <v>10.540925533894599</v>
+      </c>
+      <c r="E19" s="5">
         <v>83.333333330000002</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+      <c r="F19" s="6">
+        <v>10.540925533894599</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1939,236 +2154,323 @@
         <v>0</v>
       </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>83.333333333333343</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>90.909090909090907</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
       <c r="O19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>91.533406859999999</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
+        <v>4.5894640144248831</v>
+      </c>
+      <c r="E20" s="5">
         <v>89.088560020000003</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+      <c r="F20" s="5">
+        <v>6.6849553361314991</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>20.634920634920636</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>10.416666666666666</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>21.428571428571431</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>13.333333333333334</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>86.894586894586894</v>
       </c>
-      <c r="L20">
-        <v>100</v>
-      </c>
-      <c r="M20">
+      <c r="N20">
+        <v>100</v>
+      </c>
+      <c r="O20">
         <v>0.26455026455026454</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>55.555555560000002</v>
       </c>
-      <c r="P20">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>11.11111111</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C21">
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C21" s="5">
         <v>85.164835159999996</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
+        <v>7.6417793010483672</v>
+      </c>
+      <c r="E21" s="5">
         <v>87.082521650000004</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="F21" s="5">
+        <v>7.2501246588124673</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>3.9682539682539666</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>5.7471264367816071</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>4.7619047619047601</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>7.0175438596491206</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>60.683760683760688</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>75.531914893617028</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
       <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>33.333333330000002</v>
       </c>
-      <c r="P21">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>16.666666670000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>94.688218300000003</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
+        <v>2.9527026038884596</v>
+      </c>
+      <c r="E22" s="5">
         <v>91.146305249999997</v>
       </c>
-      <c r="E22">
+      <c r="F22" s="5">
+        <v>5.1608349331775702</v>
+      </c>
+      <c r="G22">
         <v>19.097222222222221</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>12.663398692810457</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>17.460317460317462</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>16.40625</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>35.649350649350652</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>30</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>86.941530691530687</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>99.107142857142861</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>9.9206349206349201E-2</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>50</v>
       </c>
-      <c r="P22">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>16.666666670000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C23">
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C23" s="5">
         <v>93.300449549999996</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
+        <v>3.2250169720031812</v>
+      </c>
+      <c r="E23" s="5">
         <v>92.210798330000003</v>
       </c>
-      <c r="E23">
+      <c r="F23" s="5">
+        <v>4.4073819194650161</v>
+      </c>
+      <c r="G23">
         <v>18.75</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>15.117035110533161</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>5.6547619047619033</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>8.4106239460370968</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>9.6266233766233764</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>14.575993445309299</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>61.392773892773903</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>75.818885589429058</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
       <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>50</v>
       </c>
-      <c r="P23">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2176,249 +2478,308 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D345EFCF-4B4C-49E9-9015-8512A3F15164}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="9" style="1"/>
+    <col min="1" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-      <c r="D2" s="1">
-        <v>100</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C2" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
         <v>41.666666666666671</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <v>23.52941176470588</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>77.777777777777786</v>
       </c>
-      <c r="H2" s="1">
-        <v>100</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1">
         <v>66.666666666666657</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>88.888888888888886</v>
       </c>
-      <c r="L2" s="1">
-        <v>100</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>66.666666669999998</v>
       </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="F3" s="1">
-        <v>27.586206896551719</v>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C3" s="5">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>100</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>33.333333333333329</v>
       </c>
       <c r="H3" s="1">
+        <v>27.586206896551719</v>
+      </c>
+      <c r="I3" s="1">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="J3" s="1">
         <v>50</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
       <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
         <v>66.666666666666657</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="1">
         <v>80</v>
       </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
       <c r="O3" s="1">
         <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>94.117647059999996</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
+        <v>3.72032665902162</v>
+      </c>
+      <c r="E4" s="5">
         <v>83.333333330000002</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="6">
+        <v>9.1100602236709474</v>
+      </c>
+      <c r="G4" s="1">
         <v>61.111111111111107</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>44.444444444444443</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1">
         <v>94.444444444444443</v>
       </c>
-      <c r="L4" s="1">
-        <v>100</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>33.333333330000002</v>
       </c>
-      <c r="P4" s="1">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>33.333333330000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C5" s="5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
         <v>90.909090910000003</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="6">
+        <v>5.2835138709583944</v>
+      </c>
+      <c r="G5" s="1">
         <v>66.666666666666657</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>53.333333333333343</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="1">
         <v>83.333333333333343</v>
       </c>
-      <c r="L5" s="1">
+      <c r="N5" s="1">
         <v>90.909090909090907</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
       <c r="O5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>93.333333330000002</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
+        <v>4.2163702135578376</v>
+      </c>
+      <c r="E6" s="5">
         <v>83.333333330000002</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
+      <c r="F6" s="6">
+        <v>9.1100602236709474</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>26</v>
@@ -2426,43 +2787,55 @@
       <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1">
         <v>80</v>
       </c>
-      <c r="J6" s="1">
-        <v>100</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
+        <v>100</v>
+      </c>
+      <c r="M6" s="1">
         <v>93.333333333333329</v>
       </c>
-      <c r="L6" s="1">
-        <v>100</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>33.333333330000002</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>33.333333330000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C7" s="1">
-        <v>100</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C7" s="5">
+        <v>100</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
         <v>90.909090910000003</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
+      <c r="F7" s="6">
+        <v>5.2835138709583944</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>26</v>
@@ -2470,46 +2843,58 @@
       <c r="H7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1">
         <v>40</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>57.142857142857153</v>
       </c>
-      <c r="K7" s="1">
+      <c r="M7" s="1">
         <v>80</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="1">
         <v>88.8888888888889</v>
       </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
       <c r="O7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1">
-        <v>100</v>
-      </c>
-      <c r="D8" s="1">
-        <v>100</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
+      <c r="C8" s="5">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>100</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>26</v>
@@ -2523,37 +2908,49 @@
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="1">
         <v>73.333333333333329</v>
       </c>
-      <c r="L8" s="1">
-        <v>100</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="N8" s="1">
+        <v>100</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8">
         <v>33.333333330000002</v>
       </c>
-      <c r="P8" s="1">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>33.333333330000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C9" s="1">
-        <v>100</v>
-      </c>
-      <c r="D9" s="1">
-        <v>100</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C9" s="5">
+        <v>100</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>100</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>26</v>
@@ -2567,317 +2964,401 @@
       <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="1">
         <v>20</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="1">
         <v>33.333333333333343</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="1">
-        <v>100</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="O9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>95.454545449999998</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
+        <v>1.9165319152535649</v>
+      </c>
+      <c r="E10" s="5">
         <v>95.238095240000007</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="6">
+        <v>3.011693009684171</v>
+      </c>
+      <c r="G10" s="1">
         <v>50</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>33.333333333333329</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="1">
         <v>74.242424242424249</v>
       </c>
-      <c r="J10" s="1">
-        <v>100</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
+        <v>100</v>
+      </c>
+      <c r="M10" s="1">
         <v>84.848484848484844</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="1">
         <v>92.857142857142861</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
       <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>66.666666669999998</v>
       </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="1">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C11" s="5">
         <v>90.909090910000003</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
+        <v>2.8747978728803458</v>
+      </c>
+      <c r="E11" s="5">
         <v>93.023255809999995</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="6">
+        <v>2.9416536373659361</v>
+      </c>
+      <c r="G11" s="1">
         <v>50</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
         <v>40</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="1">
         <v>22.72727272727273</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
         <v>37.037037037037038</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
         <v>59.090909090909093</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="1">
         <v>72.222222222222229</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
       <c r="O11" s="1">
         <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>95.726381459999999</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
+        <v>2.4633071969582567</v>
+      </c>
+      <c r="E12" s="5">
         <v>90.47619048</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="5">
+        <v>5.307953364256516</v>
+      </c>
+      <c r="G12" s="1">
         <v>55.555555555555557</v>
       </c>
-      <c r="F12" s="1">
+      <c r="H12" s="1">
         <v>38.888888888888886</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="I12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="1">
         <v>77.121212121212125</v>
       </c>
-      <c r="J12" s="1">
-        <v>100</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
+        <v>100</v>
+      </c>
+      <c r="M12" s="1">
         <v>86.48989898989899</v>
       </c>
-      <c r="L12" s="1">
+      <c r="N12" s="1">
         <v>98.214285714285722</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
       <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>41.666666669999998</v>
       </c>
-      <c r="P12" s="1">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="1">
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="5">
         <v>97.727272729999996</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="5">
+        <v>0.71869946822008646</v>
+      </c>
+      <c r="E13" s="5">
         <v>93.962047150000004</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="5">
+        <v>3.3771703448206813</v>
+      </c>
+      <c r="G13" s="1">
         <v>58.333333333333329</v>
       </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1">
         <v>46.666666666666664</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="1">
         <v>31.363636363636367</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>47.750865051903112</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>60.606060606060609</v>
       </c>
-      <c r="L13" s="1">
+      <c r="N13" s="1">
         <v>74.957410562180584</v>
       </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
       <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>75</v>
       </c>
-      <c r="P13" s="1">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>95.967741939999996</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="6">
+        <v>1.612903225806454</v>
+      </c>
+      <c r="E14" s="5">
         <v>93.023255809999995</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="F14" s="6">
+        <v>3.153479506284548</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="1">
         <v>61.904761904761912</v>
       </c>
-      <c r="H14" s="1">
+      <c r="J14" s="1">
         <v>31.25</v>
       </c>
-      <c r="I14" s="1">
+      <c r="K14" s="1">
         <v>64.285714285714292</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>40</v>
       </c>
-      <c r="K14" s="1">
+      <c r="M14" s="1">
         <v>94.444444444444443</v>
       </c>
-      <c r="L14" s="1">
-        <v>100</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
+        <v>100</v>
+      </c>
+      <c r="O14" s="1">
         <v>0.79365079365079361</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>66.666666669999998</v>
       </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C15" s="1">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C15" s="5">
         <v>95.238095240000007</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="6">
+        <v>1.505846504842083</v>
+      </c>
+      <c r="E15" s="5">
         <v>94.117647059999996</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="F15" s="6">
+        <v>2.2981211657995479</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="1">
         <v>11.9047619047619</v>
       </c>
-      <c r="H15" s="1">
+      <c r="J15" s="1">
         <v>17.241379310344829</v>
       </c>
-      <c r="I15" s="1">
+      <c r="K15" s="1">
         <v>14.285714285714279</v>
       </c>
-      <c r="J15" s="1">
+      <c r="L15" s="1">
         <v>21.052631578947359</v>
       </c>
-      <c r="K15" s="1">
+      <c r="M15" s="1">
         <v>83.333333333333343</v>
       </c>
-      <c r="L15" s="1">
+      <c r="N15" s="1">
         <v>90.909090909090907</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
       <c r="O15" s="1">
         <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <v>89.743589740000004</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="6">
+        <v>5.1282051282051304</v>
+      </c>
+      <c r="E16" s="5">
         <v>90.909090910000003</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>26</v>
+      <c r="F16" s="6">
+        <v>6.3604609682153521</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>26</v>
@@ -2891,37 +3372,49 @@
       <c r="J16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="1">
         <v>71.794871794871796</v>
       </c>
-      <c r="L16" s="1">
-        <v>100</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="1">
+      <c r="N16" s="1">
+        <v>100</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16">
         <v>66.666666669999998</v>
       </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C17" s="1">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C17" s="5">
         <v>76.92307692</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="6">
+        <v>10.87856586440842</v>
+      </c>
+      <c r="E17" s="5">
         <v>83.333333330000002</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>26</v>
+      <c r="F17" s="6">
+        <v>8.9113272767432541</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>26</v>
@@ -2935,40 +3428,52 @@
       <c r="J17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="1">
         <v>15.38461538461539</v>
       </c>
-      <c r="L17" s="1">
+      <c r="N17" s="1">
         <v>26.666666666666671</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <v>88.888888890000004</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="6">
+        <v>7.0272836892630659</v>
+      </c>
+      <c r="E18" s="5">
         <v>83.333333330000002</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
+      <c r="F18" s="6">
+        <v>10.540925533894599</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>26</v>
@@ -2982,37 +3487,49 @@
       <c r="J18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="1">
         <v>94.444444444444443</v>
       </c>
-      <c r="L18" s="1">
-        <v>100</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>33.333333330000002</v>
       </c>
-      <c r="P18" s="1">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>33.333333330000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C19" s="1">
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C19" s="5">
         <v>83.333333330000002</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="6">
+        <v>10.540925533894599</v>
+      </c>
+      <c r="E19" s="5">
         <v>83.333333330000002</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>26</v>
+      <c r="F19" s="6">
+        <v>10.540925533894599</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>26</v>
@@ -3026,243 +3543,328 @@
       <c r="J19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="1">
         <v>83.333333333333343</v>
       </c>
-      <c r="L19" s="1">
+      <c r="N19" s="1">
         <v>90.909090909090907</v>
       </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
       <c r="O19" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5">
         <v>91.533406859999999</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="5">
+        <v>4.5894640144248831</v>
+      </c>
+      <c r="E20" s="5">
         <v>89.088560020000003</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="F20" s="5">
+        <v>6.6849553361314991</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="1">
         <v>61.904761904761912</v>
       </c>
-      <c r="H20" s="1">
+      <c r="J20" s="1">
         <v>31.25</v>
       </c>
-      <c r="I20" s="1">
+      <c r="K20" s="1">
         <v>64.285714285714292</v>
       </c>
-      <c r="J20" s="1">
+      <c r="L20" s="1">
         <v>40</v>
       </c>
-      <c r="K20" s="1">
+      <c r="M20" s="1">
         <v>86.894586894586894</v>
       </c>
-      <c r="L20" s="1">
-        <v>100</v>
-      </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
+        <v>100</v>
+      </c>
+      <c r="O20" s="1">
         <v>0.3968253968253968</v>
       </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>55.555555560000002</v>
       </c>
-      <c r="P20" s="1">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>11.11111111</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1">
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="5">
         <v>85.164835159999996</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="5">
+        <v>7.6417793010483672</v>
+      </c>
+      <c r="E21" s="5">
         <v>87.082521650000004</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="F21" s="5">
+        <v>7.2501246588124673</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="1">
         <v>11.9047619047619</v>
       </c>
-      <c r="H21" s="1">
+      <c r="J21" s="1">
         <v>17.241379310344822</v>
       </c>
-      <c r="I21" s="1">
+      <c r="K21" s="1">
         <v>14.285714285714279</v>
       </c>
-      <c r="J21" s="1">
+      <c r="L21" s="1">
         <v>21.052631578947363</v>
       </c>
-      <c r="K21" s="1">
+      <c r="M21" s="1">
         <v>60.683760683760688</v>
       </c>
-      <c r="L21" s="1">
+      <c r="N21" s="1">
         <v>75.531914893617028</v>
       </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
       <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>33.333333330000002</v>
       </c>
-      <c r="P21" s="1">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>16.666666670000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5">
         <v>94.688218300000003</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="5">
+        <v>2.9527026038884596</v>
+      </c>
+      <c r="E22" s="5">
         <v>91.146305249999997</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="5">
+        <v>5.1608349331775702</v>
+      </c>
+      <c r="G22" s="1">
         <v>50.925925925925924</v>
       </c>
-      <c r="F22" s="1">
+      <c r="H22" s="1">
         <v>33.769063180827885</v>
       </c>
-      <c r="G22" s="1">
+      <c r="I22" s="1">
         <v>69.841269841269849</v>
       </c>
-      <c r="H22" s="1">
+      <c r="J22" s="1">
         <v>65.625</v>
       </c>
-      <c r="I22" s="1">
+      <c r="K22" s="1">
         <v>71.298701298701303</v>
       </c>
-      <c r="J22" s="1">
+      <c r="L22" s="1">
         <v>60</v>
       </c>
-      <c r="K22" s="1">
+      <c r="M22" s="1">
         <v>86.941530691530687</v>
       </c>
-      <c r="L22" s="1">
+      <c r="N22" s="1">
         <v>99.107142857142861</v>
       </c>
-      <c r="M22" s="1">
+      <c r="O22" s="1">
         <v>0.13227513227513227</v>
       </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>50</v>
       </c>
-      <c r="P22" s="1">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>16.666666670000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1">
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="5">
         <v>93.300449549999996</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="5">
+        <v>3.2250169720031812</v>
+      </c>
+      <c r="E23" s="5">
         <v>92.210798330000003</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="5">
+        <v>4.4073819194650161</v>
+      </c>
+      <c r="G23" s="1">
         <v>50</v>
       </c>
-      <c r="F23" s="1">
+      <c r="H23" s="1">
         <v>40.312093628088427</v>
       </c>
-      <c r="G23" s="1">
+      <c r="I23" s="1">
         <v>22.619047619047613</v>
       </c>
-      <c r="H23" s="1">
+      <c r="J23" s="1">
         <v>33.642495784148387</v>
       </c>
-      <c r="I23" s="1">
+      <c r="K23" s="1">
         <v>19.253246753246753</v>
       </c>
-      <c r="J23" s="1">
+      <c r="L23" s="1">
         <v>29.151986890618598</v>
       </c>
-      <c r="K23" s="1">
+      <c r="M23" s="1">
         <v>61.392773892773903</v>
       </c>
-      <c r="L23" s="1">
+      <c r="N23" s="1">
         <v>75.818885589429058</v>
       </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
       <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>50</v>
       </c>
-      <c r="P23" s="1">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="17">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:T1"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dataset2/Detection_result/results_2vs1.xlsx
+++ b/Dataset2/Detection_result/results_2vs1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SmartContract\Github\VulHunter\Dataset2\Detection_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82853BE1-AC76-42E3-8152-68FB41929590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C665E60C-9DBE-4203-BBFD-385E7FE1AE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVG" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="32">
   <si>
     <t>Severity</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Overall</t>
-  </si>
-  <si>
-    <t>Failed</t>
   </si>
   <si>
     <t>0 (0%)</t>
@@ -121,6 +118,22 @@
   </si>
   <si>
     <t>BP,TS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 (29.535864978902953%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>236 (99.57805907172997%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Failed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Failed</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -714,26 +727,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1081,7 +1088,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1089,15 +1096,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="6" width="9" style="5"/>
+    <col min="7" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -1107,56 +1116,56 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5">
-        <v>100</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>100</v>
-      </c>
-      <c r="F2" s="5">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
@@ -1203,16 +1212,16 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C3" s="5">
-        <v>100</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>100</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
@@ -1263,18 +1272,18 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5">
+        <v>16</v>
+      </c>
+      <c r="C4">
         <v>94.117647059999996</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>3.72032665902162</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
         <v>83.333333330000002</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
         <v>9.1100602236709474</v>
       </c>
       <c r="G4">
@@ -1321,16 +1330,16 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C5" s="5">
-        <v>100</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>90.909090910000003</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>5.2835138709583944</v>
       </c>
       <c r="G5">
@@ -1378,18 +1387,18 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5">
+        <v>17</v>
+      </c>
+      <c r="C6">
         <v>93.333333330000002</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>4.2163702135578376</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>83.333333330000002</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="2">
         <v>9.1100602236709474</v>
       </c>
       <c r="G6">
@@ -1436,16 +1445,16 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C7" s="5">
-        <v>100</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>90.909090910000003</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="2">
         <v>5.2835138709583944</v>
       </c>
       <c r="G7">
@@ -1493,18 +1502,18 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5">
-        <v>100</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>100</v>
-      </c>
-      <c r="F8" s="6">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8" s="2">
         <v>0</v>
       </c>
       <c r="G8">
@@ -1551,16 +1560,16 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C9" s="5">
-        <v>100</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>100</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9" s="2">
         <v>0</v>
       </c>
       <c r="G9">
@@ -1608,18 +1617,18 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5">
+        <v>19</v>
+      </c>
+      <c r="C10">
         <v>95.454545449999998</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="2">
         <v>1.9165319152535649</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10">
         <v>95.238095240000007</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="2">
         <v>3.011693009684171</v>
       </c>
       <c r="G10">
@@ -1666,16 +1675,16 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C11" s="5">
+      <c r="C11">
         <v>90.909090910000003</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="2">
         <v>2.8747978728803458</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11">
         <v>93.023255809999995</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="2">
         <v>2.9416536373659361</v>
       </c>
       <c r="G11">
@@ -1725,16 +1734,16 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>95.726381459999999</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>2.4633071969582567</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12">
         <v>90.47619048</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12">
         <v>5.307953364256516</v>
       </c>
       <c r="G12">
@@ -1781,16 +1790,16 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C13" s="5">
+      <c r="C13">
         <v>97.727272729999996</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13">
         <v>0.71869946822008646</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13">
         <v>93.962047150000004</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13">
         <v>3.3771703448206813</v>
       </c>
       <c r="G13">
@@ -1841,18 +1850,18 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="5">
+        <v>20</v>
+      </c>
+      <c r="C14">
         <v>95.967741939999996</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="2">
         <v>1.612903225806454</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14">
         <v>93.023255809999995</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="2">
         <v>3.153479506284548</v>
       </c>
       <c r="G14">
@@ -1899,16 +1908,16 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C15" s="5">
+      <c r="C15">
         <v>95.238095240000007</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="2">
         <v>1.505846504842083</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15">
         <v>94.117647059999996</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="2">
         <v>2.2981211657995479</v>
       </c>
       <c r="G15">
@@ -1956,18 +1965,18 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5">
+        <v>21</v>
+      </c>
+      <c r="C16">
         <v>89.743589740000004</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="2">
         <v>5.1282051282051304</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16">
         <v>90.909090910000003</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="2">
         <v>6.3604609682153521</v>
       </c>
       <c r="G16">
@@ -2014,16 +2023,16 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C17" s="5">
+      <c r="C17">
         <v>76.92307692</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="2">
         <v>10.87856586440842</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17">
         <v>83.333333330000002</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="2">
         <v>8.9113272767432541</v>
       </c>
       <c r="G17">
@@ -2071,18 +2080,18 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="5">
+        <v>22</v>
+      </c>
+      <c r="C18">
         <v>88.888888890000004</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="2">
         <v>7.0272836892630659</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18">
         <v>83.333333330000002</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="2">
         <v>10.540925533894599</v>
       </c>
       <c r="G18">
@@ -2129,16 +2138,16 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C19" s="5">
+      <c r="C19">
         <v>83.333333330000002</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="2">
         <v>10.540925533894599</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19">
         <v>83.333333330000002</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="2">
         <v>10.540925533894599</v>
       </c>
       <c r="G19">
@@ -2188,16 +2197,16 @@
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20">
         <v>91.533406859999999</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20">
         <v>4.5894640144248831</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20">
         <v>89.088560020000003</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20">
         <v>6.6849553361314991</v>
       </c>
       <c r="G20">
@@ -2244,16 +2253,16 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C21" s="5">
+      <c r="C21">
         <v>85.164835159999996</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21">
         <v>7.6417793010483672</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21">
         <v>87.082521650000004</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21">
         <v>7.2501246588124673</v>
       </c>
       <c r="G21">
@@ -2306,16 +2315,16 @@
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22">
         <v>94.688218300000003</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22">
         <v>2.9527026038884596</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22">
         <v>91.146305249999997</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22">
         <v>5.1608349331775702</v>
       </c>
       <c r="G22">
@@ -2362,16 +2371,16 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C23" s="5">
+      <c r="C23">
         <v>93.300449549999996</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23">
         <v>3.2250169720031812</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23">
         <v>92.210798330000003</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23">
         <v>4.4073819194650161</v>
       </c>
       <c r="G23">
@@ -2418,44 +2427,95 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="2" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="21">
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:T24"/>
     <mergeCell ref="C24:F24"/>
@@ -2463,13 +2523,6 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="M24:N24"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2478,15 +2531,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D345EFCF-4B4C-49E9-9015-8512A3F15164}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="19" width="9" style="1"/>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -2496,56 +2554,56 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5">
-        <v>100</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>100</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" s="1">
@@ -2592,16 +2650,18 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C3" s="5">
-        <v>100</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>100</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" s="1">
@@ -2648,22 +2708,22 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
         <v>94.117647059999996</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>3.72032665902162</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
         <v>83.333333330000002</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
         <v>9.1100602236709474</v>
       </c>
       <c r="G4" s="1">
@@ -2673,16 +2733,16 @@
         <v>44.444444444444443</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1">
         <v>94.444444444444443</v>
@@ -2710,16 +2770,18 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C5" s="5">
-        <v>100</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>90.909090910000003</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>5.2835138709583944</v>
       </c>
       <c r="G5" s="1">
@@ -2729,16 +2791,16 @@
         <v>53.333333333333343</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" s="1">
         <v>83.333333333333343</v>
@@ -2766,32 +2828,33 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
         <v>93.333333330000002</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>4.2163702135578376</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>83.333333330000002</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="2">
         <v>9.1100602236709474</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="1">
         <v>80</v>
@@ -2825,29 +2888,31 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C7" s="5">
-        <v>100</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>90.909090910000003</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="2">
         <v>5.2835138709583944</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="1">
         <v>40</v>
@@ -2881,38 +2946,39 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5">
-        <v>100</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>100</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8" s="2">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M8" s="1">
         <v>73.333333333333329</v>
@@ -2921,10 +2987,10 @@
         <v>100</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q8">
         <v>33.333333330000002</v>
@@ -2940,35 +3006,37 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C9" s="5">
-        <v>100</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>100</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9" s="2">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9" s="1">
         <v>20</v>
@@ -2977,10 +3045,10 @@
         <v>33.333333333333343</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q9">
         <v>100</v>
@@ -2996,19 +3064,20 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
         <v>95.454545449999998</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="2">
         <v>1.9165319152535649</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10">
         <v>95.238095240000007</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="2">
         <v>3.011693009684171</v>
       </c>
       <c r="G10" s="1">
@@ -3018,10 +3087,10 @@
         <v>33.333333333333329</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" s="1">
         <v>74.242424242424249</v>
@@ -3055,16 +3124,18 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C11" s="5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11">
         <v>90.909090910000003</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="2">
         <v>2.8747978728803458</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11">
         <v>93.023255809999995</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="2">
         <v>2.9416536373659361</v>
       </c>
       <c r="G11" s="1">
@@ -3074,10 +3145,10 @@
         <v>40</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="1">
         <v>22.72727272727273</v>
@@ -3111,19 +3182,20 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
         <v>95.726381459999999</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>2.4633071969582567</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12">
         <v>90.47619048</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12">
         <v>5.307953364256516</v>
       </c>
       <c r="G12" s="1">
@@ -3133,10 +3205,10 @@
         <v>38.888888888888886</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="1">
         <v>77.121212121212125</v>
@@ -3170,17 +3242,18 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13">
         <v>97.727272729999996</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13">
         <v>0.71869946822008646</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13">
         <v>93.962047150000004</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13">
         <v>3.3771703448206813</v>
       </c>
       <c r="G13" s="1">
@@ -3190,10 +3263,10 @@
         <v>46.666666666666664</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13" s="1">
         <v>31.363636363636367</v>
@@ -3227,29 +3300,29 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
         <v>95.967741939999996</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="2">
         <v>1.612903225806454</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14">
         <v>93.023255809999995</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="2">
         <v>3.153479506284548</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="1">
         <v>61.904761904761912</v>
@@ -3289,23 +3362,25 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C15" s="5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15">
         <v>95.238095240000007</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="2">
         <v>1.505846504842083</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15">
         <v>94.117647059999996</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="2">
         <v>2.2981211657995479</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="1">
         <v>11.9047619047619</v>
@@ -3345,38 +3420,39 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
         <v>89.743589740000004</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="2">
         <v>5.1282051282051304</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16">
         <v>90.909090910000003</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="2">
         <v>6.3604609682153521</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M16" s="1">
         <v>71.794871794871796</v>
@@ -3385,10 +3461,10 @@
         <v>100</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q16">
         <v>66.666666669999998</v>
@@ -3404,35 +3480,37 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C17" s="5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17">
         <v>76.92307692</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="2">
         <v>10.87856586440842</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17">
         <v>83.333333330000002</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="2">
         <v>8.9113272767432541</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M17" s="1">
         <v>15.38461538461539</v>
@@ -3441,10 +3519,10 @@
         <v>26.666666666666671</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -3460,38 +3538,39 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
         <v>88.888888890000004</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="2">
         <v>7.0272836892630659</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18">
         <v>83.333333330000002</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="2">
         <v>10.540925533894599</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M18" s="1">
         <v>94.444444444444443</v>
@@ -3519,35 +3598,37 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C19" s="5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19">
         <v>83.333333330000002</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="2">
         <v>10.540925533894599</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19">
         <v>83.333333330000002</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="2">
         <v>10.540925533894599</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M19" s="1">
         <v>83.333333333333343</v>
@@ -3575,26 +3656,27 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
         <v>91.533406859999999</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20">
         <v>4.5894640144248831</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20">
         <v>89.088560020000003</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20">
         <v>6.6849553361314991</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="1">
         <v>61.904761904761912</v>
@@ -3634,24 +3716,25 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21">
         <v>85.164835159999996</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21">
         <v>7.6417793010483672</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21">
         <v>87.082521650000004</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21">
         <v>7.2501246588124673</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" s="1">
         <v>11.9047619047619</v>
@@ -3691,22 +3774,22 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
         <v>94.688218300000003</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22">
         <v>2.9527026038884596</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22">
         <v>91.146305249999997</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22">
         <v>5.1608349331775702</v>
       </c>
       <c r="G22" s="1">
@@ -3753,17 +3836,18 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="5">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23">
         <v>93.300449549999996</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23">
         <v>3.2250169720031812</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23">
         <v>92.210798330000003</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23">
         <v>4.4073819194650161</v>
       </c>
       <c r="G23" s="1">
@@ -3810,61 +3894,119 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="36">
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:T25"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="M24:N24"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
